--- a/medicine/Pharmacie/Ondansétron/Ondansétron.xlsx
+++ b/medicine/Pharmacie/Ondansétron/Ondansétron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ondans%C3%A9tron</t>
+          <t>Ondansétron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ondansétron est un antagoniste 5HT3 principalement utilisé comme antiémétique. Il est indiqué dans la prévention des nausées et vomissements aigus associés à la chimiothérapie anticancéreuse.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ondans%C3%A9tron</t>
+          <t>Ondansétron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Grossesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation de l'ondansétron au cours du premier trimestre de la grossesse est associée avec un risque légèrement augmentée de fente labio-palatine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation de l'ondansétron au cours du premier trimestre de la grossesse est associée avec un risque légèrement augmentée de fente labio-palatine.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ondans%C3%A9tron</t>
+          <t>Ondansétron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ondansétron fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ondansétron fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
